--- a/doc/ue_platform.xlsx
+++ b/doc/ue_platform.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F81ABF7-7CF6-4AD7-B3DE-16963F12120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CC7C0A-7728-43FF-B4E9-A0EDA693FDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="支持平台" sheetId="1" r:id="rId1"/>
+    <sheet name="Android启动参数配置" sheetId="2" r:id="rId2"/>
+    <sheet name="IOS启动参数配置" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Windows PC</t>
   </si>
@@ -125,6 +127,106 @@
       </rPr>
       <t>Switch</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android平台下的启动参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先读取安装包目录下面的UE4CommandLine.txt，读取对应的启动参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取SD卡/UE4Game/ProjectName/UE4CommandLine.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！大小写都可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到，通过在SD卡对应目录下面增加一个文件，可以动态的增加开启的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// read in the command line text file from the sdcard if it exists</t>
+  </si>
+  <si>
+    <t>FString CommandLineFilePath = GFilePathBase + FString("/UE4Game/") + (!FApp::IsProjectNameEmpty() ? FApp::GetProjectName() : FPlatformProcess::ExecutableName()) + FString("/UE4CommandLine.txt");</t>
+  </si>
+  <si>
+    <t>FILE* CommandLineFile = fopen(TCHAR_TO_UTF8(*CommandLineFilePath), "r");</t>
+  </si>
+  <si>
+    <t>if(CommandLineFile == NULL)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>// if that failed, try the lowercase version</t>
+  </si>
+  <si>
+    <t>CommandLineFilePath = CommandLineFilePath.Replace(TEXT("UE4CommandLine.txt"), TEXT("ue4commandline.txt"));</t>
+  </si>
+  <si>
+    <t>CommandLineFile = fopen(TCHAR_TO_UTF8(*CommandLineFilePath), "r");</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>IOS启动的参数配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先读取包里面的ue4commandline.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取Document目录下面的ue4commandline.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// command line text file included in the bundle</t>
+  </si>
+  <si>
+    <t>FString BundleCommandLineFilePath = FString([[NSBundle mainBundle] bundlePath]) + TEXT("/ue4commandline.txt");</t>
+  </si>
+  <si>
+    <t>// command line text file pushed to the documents folder</t>
+  </si>
+  <si>
+    <t>FString DocumentsCommandLineFilePath = FString([NSSearchPathForDirectoriesInDomains(NSDocumentDirectory, NSUserDomainMask, YES) objectAtIndex:0]) + TEXT("/ue4commandline.txt");</t>
+  </si>
+  <si>
+    <t>#if UE_BUILD_SHIPPING</t>
+  </si>
+  <si>
+    <t>#else</t>
+  </si>
+  <si>
+    <t>bool bIsTestFlightOrInternal = YES;</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>bool bFoundDocumentsCommandLine = bIsTestFlightOrInternal &amp;&amp; TryReadCommandLineFile(DocumentsCommandLineFilePath);</t>
+  </si>
+  <si>
+    <t>if (!bFoundDocumentsCommandLine)</t>
+  </si>
+  <si>
+    <t>TryReadCommandLineFile(BundleCommandLineFilePath);</t>
+  </si>
+  <si>
+    <t>！！！SHIPPING的话，需要打开这个标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool bIsTestFlightOrInternal = [[[[NSBundle mainBundle] appStoreReceiptURL] lastPathComponent] isEqualToString: @"sandboxReceipt"];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -635,4 +737,206 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FD7C58-7C49-49AD-8118-551F8012D316}">
+  <dimension ref="B2:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3984DA82-03DF-49A8-A13F-BD0CC5FF3D65}">
+  <dimension ref="B5:V27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>52</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="6:22" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>